--- a/Git notes.xlsx
+++ b/Git notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00014744\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956E991-49C9-45D8-B049-7253D8904A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B168B5-277C-4A00-8D46-BBA6A321AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2292" yWindow="972" windowWidth="20400" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>git help</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>cat ~/.ssh/id_rsa.pub</t>
+  </si>
+  <si>
+    <t>Accessing already created repo</t>
+  </si>
+  <si>
+    <t>git remote set-url origin 'sshclone'</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,6 +1034,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{B0A84DAF-CB3D-4B08-BFCD-520007EC8240}"/>
